--- a/利润表/300923.xlsx
+++ b/利润表/300923.xlsx
@@ -190,7 +190,7 @@
     <t>2020-12-09 00:00:00</t>
   </si>
   <si>
-    <t>2019-12-31 00:00:00</t>
+    <t>2018-12-31 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -738,61 +738,61 @@
         <v>58</v>
       </c>
       <c r="O2">
-        <v>59702503.2</v>
+        <v>49420093.48</v>
       </c>
       <c r="P2">
-        <v>370886753.73</v>
+        <v>349772228.03</v>
       </c>
       <c r="Q2">
-        <v>301025218.99</v>
+        <v>298198015.67</v>
       </c>
       <c r="R2">
-        <v>0.9480959535</v>
+        <v>-5.4431237327</v>
       </c>
       <c r="S2">
-        <v>229366963.84</v>
+        <v>232532441.33</v>
       </c>
       <c r="T2">
-        <v>229366963.84</v>
+        <v>232532441.33</v>
       </c>
       <c r="U2">
-        <v>-1.3613057481</v>
+        <v>-5.1724184534</v>
       </c>
       <c r="V2">
-        <v>24485548.22</v>
+        <v>18074572.4</v>
       </c>
       <c r="W2">
-        <v>28303294.87</v>
+        <v>26364308.92</v>
       </c>
       <c r="X2">
-        <v>1216783.36</v>
+        <v>1965755.26</v>
       </c>
       <c r="Y2">
-        <v>68970773.34999999</v>
+        <v>56669469.53</v>
       </c>
       <c r="Z2">
-        <v>68990866.78</v>
+        <v>57154161.31</v>
       </c>
       <c r="AA2">
-        <v>9288363.58</v>
+        <v>7734067.83</v>
       </c>
       <c r="AG2">
-        <v>4462745.94</v>
+        <v>4255553.25</v>
       </c>
       <c r="AP2">
-        <v>6.036650142</v>
+        <v>-4.2024798498</v>
       </c>
       <c r="AQ2">
-        <v>21.707109528329</v>
+        <v>4.961080315292</v>
       </c>
       <c r="AR2">
-        <v>20.806131668207</v>
+        <v>3.121877476969</v>
       </c>
       <c r="AS2">
-        <v>58488649.39</v>
+        <v>44748643.84</v>
       </c>
       <c r="AT2">
-        <v>30.704743163005</v>
+        <v>-2.680899818985</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/300923.xlsx
+++ b/利润表/300923.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>49420093.48</v>
+        <v>42055175.49</v>
       </c>
       <c r="P2" t="n">
-        <v>349772228.03</v>
+        <v>265462037.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>298198015.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-5.4431237327</v>
-      </c>
+        <v>215991348.45</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>232532441.33</v>
+        <v>168275840.43</v>
       </c>
       <c r="T2" t="n">
-        <v>232532441.33</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-5.1724184534</v>
-      </c>
+        <v>168275840.43</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>18074572.4</v>
+        <v>16473186.32</v>
       </c>
       <c r="W2" t="n">
-        <v>26364308.92</v>
+        <v>18564739.48</v>
       </c>
       <c r="X2" t="n">
-        <v>1965755.26</v>
+        <v>784201.02</v>
       </c>
       <c r="Y2" t="n">
-        <v>56669469.53</v>
+        <v>50272773.92</v>
       </c>
       <c r="Z2" t="n">
-        <v>57154161.31</v>
+        <v>49816459.45</v>
       </c>
       <c r="AA2" t="n">
-        <v>7734067.83</v>
+        <v>7761283.96</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>4255553.25</v>
+        <v>3095204.65</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>-4.2024798498</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4.961080315292</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>3.121877476969</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>44748643.84</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-2.680899818985</v>
-      </c>
+        <v>41543548</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/300923.xlsx
+++ b/利润表/300923.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>42055175.49</v>
+        <v>49132470.49</v>
       </c>
       <c r="P2" t="n">
-        <v>265462037.41</v>
+        <v>247689138.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>215991348.45</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>191999725.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-11.1076778224</v>
+      </c>
       <c r="S2" t="n">
-        <v>168275840.43</v>
+        <v>153094704.74</v>
       </c>
       <c r="T2" t="n">
-        <v>168275840.43</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>153094704.74</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-9.0215776972</v>
+      </c>
       <c r="V2" t="n">
-        <v>16473186.32</v>
+        <v>12033616.75</v>
       </c>
       <c r="W2" t="n">
-        <v>18564739.48</v>
+        <v>16079754.47</v>
       </c>
       <c r="X2" t="n">
-        <v>784201.02</v>
+        <v>346855.67</v>
       </c>
       <c r="Y2" t="n">
-        <v>50272773.92</v>
+        <v>57079843.78</v>
       </c>
       <c r="Z2" t="n">
-        <v>49816459.45</v>
+        <v>56806982.27</v>
       </c>
       <c r="AA2" t="n">
-        <v>7761283.96</v>
+        <v>7674511.78</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3095204.65</v>
+        <v>2858424.12</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>-6.6950813206</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>13.540271063682</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>16.828594620139</v>
+      </c>
       <c r="AS2" t="n">
-        <v>41543548</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>45354963.11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>9.174594331711999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
